--- a/wet_lab_analysis/activity_assay/data/activity_master.xlsx
+++ b/wet_lab_analysis/activity_assay/data/activity_master.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2b4f9dfd505079b/Dokumente/Uni/Master/Amsterdam/Master_Thesis/Lab/activity_assays/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d2b4f9dfd505079b/Dokumente/Uni/Master/Amsterdam/Master_Thesis/git/wet_lab_analysis/activity_assay/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="8_{E936C4DA-6582-4099-B40E-1849765A6C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E822B3AA-AF98-4033-904B-AA541CE118AE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6B5BAC97-61FC-4F5A-A762-65729A2B18C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{311CDB10-9FCB-4810-909C-B98DBA9C9C67}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{311CDB10-9FCB-4810-909C-B98DBA9C9C67}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -118,6 +118,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,21 +192,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -540,54 +544,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC651DD3-5156-4D0C-B28C-87B2B75D18EE}">
-  <dimension ref="A1:L62"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
         <v>0</v>
       </c>
       <c r="B2" s="4">
@@ -623,9 +627,10 @@
       <c r="L2" s="4">
         <v>0.83399999999999996</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
         <v>15</v>
       </c>
       <c r="B3" s="4">
@@ -661,9 +666,10 @@
       <c r="L3" s="4">
         <v>0.82699999999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
+      <c r="M3" s="5"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
         <v>30</v>
       </c>
       <c r="B4" s="4">
@@ -699,9 +705,10 @@
       <c r="L4" s="4">
         <v>0.82</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" s="6">
         <v>45</v>
       </c>
       <c r="B5" s="4">
@@ -737,9 +744,10 @@
       <c r="L5" s="4">
         <v>0.81299999999999994</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" s="6">
         <v>60</v>
       </c>
       <c r="B6" s="4">
@@ -775,9 +783,10 @@
       <c r="L6" s="4">
         <v>0.80700000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
         <v>75</v>
       </c>
       <c r="B7" s="4">
@@ -813,9 +822,10 @@
       <c r="L7" s="4">
         <v>0.80200000000000005</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
         <v>90</v>
       </c>
       <c r="B8" s="4">
@@ -851,9 +861,10 @@
       <c r="L8" s="4">
         <v>0.79600000000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
         <v>105</v>
       </c>
       <c r="B9" s="4">
@@ -889,9 +900,10 @@
       <c r="L9" s="4">
         <v>0.79</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="6">
         <v>120</v>
       </c>
       <c r="B10" s="4">
@@ -927,9 +939,10 @@
       <c r="L10" s="4">
         <v>0.78500000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="2">
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" s="6">
         <v>135</v>
       </c>
       <c r="B11" s="4">
@@ -965,9 +978,10 @@
       <c r="L11" s="4">
         <v>0.77900000000000003</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="2">
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" s="6">
         <v>150</v>
       </c>
       <c r="B12" s="4">
@@ -1003,9 +1017,10 @@
       <c r="L12" s="4">
         <v>0.77400000000000002</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="2">
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="6">
         <v>165</v>
       </c>
       <c r="B13" s="4">
@@ -1041,9 +1056,10 @@
       <c r="L13" s="4">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="2">
+      <c r="M13" s="5"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" s="6">
         <v>180</v>
       </c>
       <c r="B14" s="4">
@@ -1079,9 +1095,10 @@
       <c r="L14" s="4">
         <v>0.76300000000000001</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="2">
+      <c r="M14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" s="6">
         <v>195</v>
       </c>
       <c r="B15" s="4">
@@ -1117,9 +1134,10 @@
       <c r="L15" s="4">
         <v>0.75800000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="2">
+      <c r="M15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" s="6">
         <v>210</v>
       </c>
       <c r="B16" s="4">
@@ -1155,9 +1173,10 @@
       <c r="L16" s="4">
         <v>0.752</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="2">
+      <c r="M16" s="5"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" s="6">
         <v>225</v>
       </c>
       <c r="B17" s="4">
@@ -1193,9 +1212,10 @@
       <c r="L17" s="4">
         <v>0.747</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="2">
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" s="6">
         <v>240</v>
       </c>
       <c r="B18" s="4">
@@ -1231,9 +1251,10 @@
       <c r="L18" s="4">
         <v>0.74099999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="2">
+      <c r="M18" s="5"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" s="6">
         <v>255</v>
       </c>
       <c r="B19" s="4">
@@ -1269,9 +1290,10 @@
       <c r="L19" s="4">
         <v>0.73499999999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="2">
+      <c r="M19" s="5"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="6">
         <v>270</v>
       </c>
       <c r="B20" s="4">
@@ -1307,9 +1329,10 @@
       <c r="L20" s="4">
         <v>0.73</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="2">
+      <c r="M20" s="5"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="6">
         <v>285</v>
       </c>
       <c r="B21" s="4">
@@ -1345,9 +1368,10 @@
       <c r="L21" s="4">
         <v>0.72399999999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="2">
+      <c r="M21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="6">
         <v>300</v>
       </c>
       <c r="B22" s="4">
@@ -1383,9 +1407,10 @@
       <c r="L22" s="4">
         <v>0.71799999999999997</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="2">
+      <c r="M22" s="5"/>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="6">
         <v>315</v>
       </c>
       <c r="B23" s="4">
@@ -1421,9 +1446,10 @@
       <c r="L23" s="4">
         <v>0.71199999999999997</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="2">
+      <c r="M23" s="5"/>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="6">
         <v>330</v>
       </c>
       <c r="B24" s="4">
@@ -1459,9 +1485,10 @@
       <c r="L24" s="4">
         <v>0.70599999999999996</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="2">
+      <c r="M24" s="5"/>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="6">
         <v>345</v>
       </c>
       <c r="B25" s="4">
@@ -1497,9 +1524,10 @@
       <c r="L25" s="4">
         <v>0.7</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="2">
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="6">
         <v>360</v>
       </c>
       <c r="B26" s="4">
@@ -1535,9 +1563,10 @@
       <c r="L26" s="4">
         <v>0.69399999999999995</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="2">
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="6">
         <v>375</v>
       </c>
       <c r="B27" s="4">
@@ -1573,9 +1602,10 @@
       <c r="L27" s="4">
         <v>0.68799999999999994</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="2">
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="6">
         <v>390</v>
       </c>
       <c r="B28" s="4">
@@ -1611,9 +1641,10 @@
       <c r="L28" s="4">
         <v>0.68200000000000005</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="2">
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="6">
         <v>405</v>
       </c>
       <c r="B29" s="4">
@@ -1649,9 +1680,10 @@
       <c r="L29" s="4">
         <v>0.67600000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="2">
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="6">
         <v>420</v>
       </c>
       <c r="B30" s="4">
@@ -1687,9 +1719,10 @@
       <c r="L30" s="4">
         <v>0.67</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="2">
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="6">
         <v>435</v>
       </c>
       <c r="B31" s="4">
@@ -1725,9 +1758,10 @@
       <c r="L31" s="4">
         <v>0.66400000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A32" s="2">
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="6">
         <v>450</v>
       </c>
       <c r="B32" s="4">
@@ -1763,9 +1797,10 @@
       <c r="L32" s="4">
         <v>0.65800000000000003</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A33" s="2">
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="6">
         <v>465</v>
       </c>
       <c r="B33" s="4">
@@ -1801,9 +1836,10 @@
       <c r="L33" s="4">
         <v>0.65200000000000002</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A34" s="2">
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="6">
         <v>480</v>
       </c>
       <c r="B34" s="4">
@@ -1839,9 +1875,10 @@
       <c r="L34" s="4">
         <v>0.64700000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A35" s="2">
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="6">
         <v>495</v>
       </c>
       <c r="B35" s="4">
@@ -1877,9 +1914,10 @@
       <c r="L35" s="4">
         <v>0.64</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A36" s="2">
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="6">
         <v>510</v>
       </c>
       <c r="B36" s="4">
@@ -1915,9 +1953,10 @@
       <c r="L36" s="4">
         <v>0.63400000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A37" s="2">
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="6">
         <v>525</v>
       </c>
       <c r="B37" s="4">
@@ -1953,9 +1992,10 @@
       <c r="L37" s="4">
         <v>0.628</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A38" s="2">
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="6">
         <v>540</v>
       </c>
       <c r="B38" s="4">
@@ -1991,9 +2031,10 @@
       <c r="L38" s="4">
         <v>0.622</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A39" s="2">
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="6">
         <v>555</v>
       </c>
       <c r="B39" s="4">
@@ -2027,9 +2068,10 @@
       <c r="L39" s="4">
         <v>0.61699999999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A40" s="2">
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="6">
         <v>570</v>
       </c>
       <c r="B40" s="4">
@@ -2063,9 +2105,10 @@
       <c r="L40" s="4">
         <v>0.61</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A41" s="2">
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="6">
         <v>585</v>
       </c>
       <c r="B41" s="4"/>
@@ -2097,9 +2140,10 @@
       <c r="L41" s="4">
         <v>0.60499999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A42" s="2">
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="6">
         <v>600</v>
       </c>
       <c r="B42" s="4"/>
@@ -2131,9 +2175,10 @@
       <c r="L42" s="4">
         <v>0.59899999999999998</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A43" s="2">
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="6">
         <v>615</v>
       </c>
       <c r="B43" s="4"/>
@@ -2153,9 +2198,14 @@
       <c r="H43" s="4">
         <v>0.60199999999999998</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A44" s="2">
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="6">
         <v>630</v>
       </c>
       <c r="B44" s="4"/>
@@ -2175,9 +2225,14 @@
       <c r="H44" s="4">
         <v>0.59799999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A45" s="2">
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="6">
         <v>645</v>
       </c>
       <c r="B45" s="4"/>
@@ -2197,9 +2252,14 @@
       <c r="H45" s="4">
         <v>0.59299999999999997</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A46" s="2">
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="6">
         <v>660</v>
       </c>
       <c r="B46" s="4"/>
@@ -2219,9 +2279,14 @@
       <c r="H46" s="4">
         <v>0.58899999999999997</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A47" s="2">
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="6">
         <v>675</v>
       </c>
       <c r="B47" s="4"/>
@@ -2241,9 +2306,14 @@
       <c r="H47" s="4">
         <v>0.58399999999999996</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A48" s="2">
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="6">
         <v>690</v>
       </c>
       <c r="B48" s="4"/>
@@ -2263,9 +2333,14 @@
       <c r="H48" s="4">
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="2">
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="6">
         <v>705</v>
       </c>
       <c r="B49" s="4"/>
@@ -2285,9 +2360,14 @@
       <c r="H49" s="4">
         <v>0.57599999999999996</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="2">
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="6">
         <v>720</v>
       </c>
       <c r="B50" s="4"/>
@@ -2307,9 +2387,14 @@
       <c r="H50" s="4">
         <v>0.57199999999999995</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="2">
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="6">
         <v>735</v>
       </c>
       <c r="B51" s="4"/>
@@ -2329,9 +2414,14 @@
       <c r="H51" s="4">
         <v>0.56699999999999995</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="2">
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A52" s="6">
         <v>750</v>
       </c>
       <c r="B52" s="4"/>
@@ -2351,9 +2441,14 @@
       <c r="H52" s="4">
         <v>0.56299999999999994</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="2">
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5"/>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A53" s="6">
         <v>765</v>
       </c>
       <c r="B53" s="4"/>
@@ -2373,9 +2468,14 @@
       <c r="H53" s="4">
         <v>0.55800000000000005</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="2">
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5"/>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A54" s="6">
         <v>780</v>
       </c>
       <c r="B54" s="4"/>
@@ -2395,9 +2495,14 @@
       <c r="H54" s="4">
         <v>0.55400000000000005</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="2">
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A55" s="6">
         <v>795</v>
       </c>
       <c r="B55" s="4"/>
@@ -2417,9 +2522,14 @@
       <c r="H55" s="4">
         <v>0.55000000000000004</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="2">
+      <c r="I55" s="5"/>
+      <c r="J55" s="5"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="5"/>
+      <c r="M55" s="5"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A56" s="6">
         <v>810</v>
       </c>
       <c r="B56" s="4"/>
@@ -2439,9 +2549,14 @@
       <c r="H56" s="4">
         <v>0.54600000000000004</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="2">
+      <c r="I56" s="5"/>
+      <c r="J56" s="5"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="5"/>
+      <c r="M56" s="5"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A57" s="6">
         <v>825</v>
       </c>
       <c r="B57" s="4"/>
@@ -2461,9 +2576,14 @@
       <c r="H57" s="4">
         <v>0.54200000000000004</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="2">
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="5"/>
+      <c r="M57" s="5"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A58" s="6">
         <v>840</v>
       </c>
       <c r="B58" s="4"/>
@@ -2483,9 +2603,14 @@
       <c r="H58" s="4">
         <v>0.53800000000000003</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="2">
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A59" s="6">
         <v>855</v>
       </c>
       <c r="B59" s="4"/>
@@ -2505,9 +2630,14 @@
       <c r="H59" s="4">
         <v>0.53400000000000003</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="2">
+      <c r="I59" s="5"/>
+      <c r="J59" s="5"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="5"/>
+      <c r="M59" s="5"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A60" s="6">
         <v>870</v>
       </c>
       <c r="B60" s="4"/>
@@ -2527,9 +2657,14 @@
       <c r="H60" s="4">
         <v>0.53100000000000003</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="2">
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A61" s="6">
         <v>885</v>
       </c>
       <c r="B61" s="4"/>
@@ -2549,9 +2684,14 @@
       <c r="H61" s="4">
         <v>0.52700000000000002</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="2">
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="5"/>
+      <c r="M61" s="5"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A62" s="6">
         <v>900</v>
       </c>
       <c r="B62" s="4"/>
@@ -2571,9 +2711,30 @@
       <c r="H62" s="4">
         <v>0.52200000000000002</v>
       </c>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="5"/>
+      <c r="M62" s="5"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="5"/>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="5"/>
+      <c r="M63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2581,7 +2742,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7331A05D-13F4-46AA-BADB-5A86EB485CE3}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -2610,8 +2771,8 @@
       <c r="B3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -2684,10 +2845,10 @@
       <c r="B12">
         <v>0.01</v>
       </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
